--- a/data_output/prism_passive/all_passive_force at 67perc ROM.xlsx
+++ b/data_output/prism_passive/all_passive_force at 67perc ROM.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>664.4040783994509</v>
+        <v>664.40407147988253</v>
       </c>
       <c r="C2">
-        <v>531.50259167172783</v>
+        <v>531.5025879415125</v>
       </c>
       <c r="D2">
-        <v>771.25701545968775</v>
+        <v>771.25700831171434</v>
       </c>
       <c r="E2">
-        <v>788.77178351677196</v>
+        <v>788.77177742938795</v>
       </c>
       <c r="F2">
-        <v>538.18447515159585</v>
+        <v>538.18447164097529</v>
       </c>
       <c r="G2">
-        <v>638.09560219980051</v>
+        <v>638.095599864071</v>
       </c>
       <c r="H2">
-        <v>741.78087360653979</v>
+        <v>741.78086853070761</v>
       </c>
       <c r="I2">
-        <v>637.56263773813146</v>
+        <v>637.56263488377169</v>
       </c>
       <c r="J2">
-        <v>785.65831108612656</v>
+        <v>785.65830530725259</v>
       </c>
       <c r="K2">
-        <v>773.22297248194025</v>
+        <v>773.22296686657592</v>
       </c>
       <c r="L2">
-        <v>518.65626466427659</v>
+        <v>518.65625967817425</v>
       </c>
       <c r="M2">
-        <v>632.97730561691014</v>
+        <v>632.97730382556517</v>
       </c>
       <c r="N2">
-        <v>590.31889893653636</v>
+        <v>590.31889494079167</v>
       </c>
       <c r="O2">
-        <v>401.89657966571377</v>
+        <v>401.8965782137555</v>
       </c>
       <c r="P2">
-        <v>663.2218954642243</v>
+        <v>663.22189082830312</v>
       </c>
       <c r="Q2">
-        <v>436.02477349154839</v>
+        <v>436.02477216889832</v>
       </c>
       <c r="R2">
-        <v>736.89078145354415</v>
+        <v>736.8907799324985</v>
       </c>
       <c r="S2">
-        <v>1066.2967396004278</v>
+        <v>1066.2967346442995</v>
       </c>
       <c r="T2">
-        <v>674.08826787276564</v>
+        <v>674.08826708146523</v>
       </c>
       <c r="U2">
-        <v>422.26718486075112</v>
+        <v>422.26718301886052</v>
       </c>
       <c r="V2">
-        <v>891.38102201050754</v>
+        <v>891.38101777962481</v>
       </c>
       <c r="W2">
-        <v>679.77081610655637</v>
+        <v>679.770810030603</v>
       </c>
       <c r="X2">
-        <v>464.23362805376536</v>
+        <v>464.23362374431417</v>
       </c>
       <c r="Y2">
-        <v>591.64907362002862</v>
+        <v>591.64907205019256</v>
       </c>
       <c r="Z2">
-        <v>259.05603176344817</v>
+        <v>259.05603146828525</v>
       </c>
       <c r="AA2">
-        <v>1001.6566022805579</v>
+        <v>1001.6565927352962</v>
       </c>
       <c r="AB2">
-        <v>461.48528998611664</v>
+        <v>461.48528489721775</v>
       </c>
       <c r="AC2">
-        <v>621.41793131478619</v>
+        <v>621.41792520368097</v>
       </c>
       <c r="AD2">
-        <v>461.87399222471612</v>
+        <v>461.87398746125263</v>
       </c>
       <c r="AE2">
-        <v>585.383229006894</v>
+        <v>585.38322336838053</v>
       </c>
       <c r="AF2">
-        <v>645.77932060882483</v>
+        <v>645.77931736665244</v>
       </c>
       <c r="AG2">
-        <v>604.92201419773198</v>
+        <v>604.92200633921811</v>
       </c>
       <c r="AH2">
-        <v>527.24591848303101</v>
+        <v>527.2459164472084</v>
       </c>
       <c r="AI2">
-        <v>742.74361972211898</v>
+        <v>742.74361462512786</v>
       </c>
       <c r="AJ2">
-        <v>1144.7649631492116</v>
+        <v>1144.7649551747174</v>
       </c>
       <c r="AK2">
-        <v>484.95729468540435</v>
+        <v>484.95728999380486</v>
       </c>
       <c r="AL2">
-        <v>741.07368536702427</v>
+        <v>741.07368219189664</v>
       </c>
       <c r="AM2">
-        <v>755.62366177014076</v>
+        <v>755.62365799511065</v>
       </c>
       <c r="AN2">
-        <v>383.60313204402695</v>
+        <v>383.60313119269222</v>
       </c>
       <c r="AO2">
-        <v>673.53122936368788</v>
+        <v>673.53122612534389</v>
       </c>
       <c r="AP2">
-        <v>420.32128711146237</v>
+        <v>420.32128605096642</v>
       </c>
       <c r="AQ2">
-        <v>639.96648689054007</v>
+        <v>639.9664850499895</v>
       </c>
       <c r="AR2">
-        <v>686.93718372883279</v>
+        <v>686.93717968263002</v>
       </c>
       <c r="AS2">
-        <v>939.71885359815769</v>
+        <v>939.71884652481788</v>
       </c>
       <c r="AT2">
-        <v>317.14280163734179</v>
+        <v>317.14280095182107</v>
       </c>
       <c r="AU2">
-        <v>864.80961235599625</v>
+        <v>864.8096081901939</v>
       </c>
       <c r="AV2">
-        <v>571.50097842708783</v>
+        <v>571.50097269163837</v>
       </c>
       <c r="AW2">
-        <v>328.80504692162776</v>
+        <v>328.80504512920442</v>
       </c>
       <c r="AX2">
-        <v>596.63538755225954</v>
+        <v>596.63538326108039</v>
       </c>
       <c r="AY2">
-        <v>352.46222630110725</v>
+        <v>352.46222461721305</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>768.8220115826507</v>
+        <v>768.82200340968029</v>
       </c>
       <c r="C3">
-        <v>569.88305435352822</v>
+        <v>569.88304913131958</v>
       </c>
       <c r="D3">
-        <v>415.45243908670813</v>
+        <v>415.45243711050904</v>
       </c>
       <c r="E3">
-        <v>1141.2810798553596</v>
+        <v>1141.2810723687001</v>
       </c>
       <c r="F3">
-        <v>351.26462187205806</v>
+        <v>351.26462034656953</v>
       </c>
       <c r="G3">
-        <v>826.27823658292493</v>
+        <v>826.27823260038224</v>
       </c>
       <c r="H3">
-        <v>771.04895300414739</v>
+        <v>771.0489479953917</v>
       </c>
       <c r="I3">
-        <v>551.26986244920488</v>
+        <v>551.26986156080784</v>
       </c>
       <c r="J3">
-        <v>678.02620862881292</v>
+        <v>678.02620274760852</v>
       </c>
       <c r="K3">
-        <v>705.91531596988386</v>
+        <v>705.91531359157489</v>
       </c>
       <c r="L3">
-        <v>596.50662203023978</v>
+        <v>596.50661916442277</v>
       </c>
       <c r="M3">
-        <v>815.75700379774571</v>
+        <v>815.79965599244952</v>
       </c>
       <c r="N3">
-        <v>639.46245407163985</v>
+        <v>639.46245178292122</v>
       </c>
       <c r="O3">
-        <v>404.93060369385194</v>
+        <v>404.9306028098606</v>
       </c>
       <c r="P3">
-        <v>885.97527242703291</v>
+        <v>885.97526588557196</v>
       </c>
       <c r="Q3">
-        <v>496.16746981116688</v>
+        <v>496.16746804505073</v>
       </c>
       <c r="R3">
-        <v>508.21455107830815</v>
+        <v>508.21454833938918</v>
       </c>
       <c r="S3">
-        <v>674.91330131785787</v>
+        <v>674.91329897767696</v>
       </c>
       <c r="T3">
-        <v>672.99587688237341</v>
+        <v>672.99587540341861</v>
       </c>
       <c r="U3">
-        <v>484.42499638176452</v>
+        <v>484.42499511541291</v>
       </c>
       <c r="V3">
-        <v>649.60063420939707</v>
+        <v>649.60063210915212</v>
       </c>
       <c r="W3">
-        <v>418.53788056870616</v>
+        <v>418.5378783644565</v>
       </c>
       <c r="X3">
-        <v>413.20642156449776</v>
+        <v>413.20641979803491</v>
       </c>
       <c r="Y3">
-        <v>517.33430436375045</v>
+        <v>517.33430303369414</v>
       </c>
       <c r="Z3">
-        <v>326.20853984200886</v>
+        <v>326.20853941765398</v>
       </c>
       <c r="AA3">
-        <v>772.30077175891074</v>
+        <v>772.30076226405617</v>
       </c>
       <c r="AB3">
-        <v>588.82552526388315</v>
+        <v>588.82551790618447</v>
       </c>
       <c r="AC3">
-        <v>592.24615065222599</v>
+        <v>592.24614546105943</v>
       </c>
       <c r="AD3">
-        <v>819.30779422028581</v>
+        <v>819.30778678654951</v>
       </c>
       <c r="AE3">
-        <v>496.71937477725277</v>
+        <v>496.71936926303675</v>
       </c>
       <c r="AF3">
-        <v>722.39517019821187</v>
+        <v>722.39516356863942</v>
       </c>
       <c r="AG3">
-        <v>763.95426959292843</v>
+        <v>763.95426073695853</v>
       </c>
       <c r="AH3">
-        <v>709.73943113118219</v>
+        <v>709.73942752171888</v>
       </c>
       <c r="AI3">
-        <v>722.32281750598588</v>
+        <v>722.32281071763191</v>
       </c>
       <c r="AJ3">
-        <v>1268.0077190989252</v>
+        <v>1268.0077104447917</v>
       </c>
       <c r="AK3">
-        <v>687.07387454675961</v>
+        <v>687.07386679274316</v>
       </c>
       <c r="AL3">
-        <v>685.0817016963598</v>
+        <v>685.08169686560939</v>
       </c>
       <c r="AM3">
-        <v>908.20733160185353</v>
+        <v>908.20732508596382</v>
       </c>
       <c r="AN3">
-        <v>490.67665737946527</v>
+        <v>490.67665434144442</v>
       </c>
       <c r="AO3">
-        <v>1014.6316199756193</v>
+        <v>1014.6316102979146</v>
       </c>
       <c r="AP3">
-        <v>455.94870343475833</v>
+        <v>455.9487020872275</v>
       </c>
       <c r="AQ3">
-        <v>425.30853291394607</v>
+        <v>425.30853154921533</v>
       </c>
       <c r="AR3">
-        <v>608.36962346706161</v>
+        <v>608.36962179582531</v>
       </c>
       <c r="AS3">
-        <v>768.70649085349544</v>
+        <v>768.70648475132145</v>
       </c>
       <c r="AT3">
-        <v>343.11616526351418</v>
+        <v>343.11616407393439</v>
       </c>
       <c r="AU3">
-        <v>1065.8360279041415</v>
+        <v>1065.8360204875746</v>
       </c>
       <c r="AV3">
-        <v>510.41733776566321</v>
+        <v>510.41733200485663</v>
       </c>
       <c r="AW3">
-        <v>543.56649653487955</v>
+        <v>543.56649122378474</v>
       </c>
       <c r="AX3">
-        <v>731.65428824274579</v>
+        <v>731.65428464089234</v>
       </c>
       <c r="AY3">
-        <v>489.27155382553633</v>
+        <v>489.27155102054803</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_force at 67perc ROM.xlsx
+++ b/data_output/prism_passive/all_passive_force at 67perc ROM.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>664.40407147988253</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>531.5025879415125</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>771.25700831171434</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>788.77177742938795</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>538.18447164097529</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>638.095599864071</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>741.78086853070761</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>637.56263488377169</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>785.65830530725259</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>773.22296686657592</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>518.65625967817425</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>632.97730382556517</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>590.31889494079167</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>401.8965782137555</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>663.22189082830312</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>436.02477216889832</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>736.8907799324985</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>1066.2967346442995</v>
@@ -588,55 +477,55 @@
         <v>259.05603146828525</v>
       </c>
       <c r="AA2">
-        <v>1001.6565927352962</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>461.48528489721775</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>621.41792520368097</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>461.87398746125263</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>585.38322336838053</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>645.77931736665244</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>604.92200633921811</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>527.2459164472084</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>742.74361462512786</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1144.7649551747174</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>484.95728999380486</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>741.07368219189664</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>755.62365799511065</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>383.60313119269222</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>673.53122612534389</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>420.32128605096642</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>639.9664850499895</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>686.93717968263002</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>768.82200340968029</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>569.88304913131958</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>415.45243711050904</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1141.2810723687001</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>351.26462034656953</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>826.27823260038224</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>771.0489479953917</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>551.26986156080784</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>678.02620274760852</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>705.91531359157489</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>596.50661916442277</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>815.79965599244952</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>639.46245178292122</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>404.9306028098606</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>885.97526588557196</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>496.16746804505073</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>508.21454833938918</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>674.91329897767696</v>
@@ -743,55 +629,55 @@
         <v>326.20853941765398</v>
       </c>
       <c r="AA3">
-        <v>772.30076226405617</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>588.82551790618447</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>592.24614546105943</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>819.30778678654951</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>496.71936926303675</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>722.39516356863942</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>763.95426073695853</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>709.73942752171888</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>722.32281071763191</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1268.0077104447917</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>687.07386679274316</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>685.08169686560939</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>908.20732508596382</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>490.67665434144442</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>1014.6316102979146</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>455.9487020872275</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>425.30853154921533</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>608.36962179582531</v>

--- a/data_output/prism_passive/all_passive_force at 67perc ROM.xlsx
+++ b/data_output/prism_passive/all_passive_force at 67perc ROM.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>664.4040783994509</v>
+        <v>401.8965782137555</v>
       </c>
       <c r="C2">
-        <v>531.50259167172783</v>
+        <v>736.8907799324985</v>
       </c>
       <c r="D2">
-        <v>771.25701545968775</v>
+        <v>383.60313119269222</v>
       </c>
       <c r="E2">
-        <v>788.77178351677196</v>
+        <v>639.9664850499895</v>
       </c>
       <c r="F2">
         <v>538.18447515159585</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>768.8220115826507</v>
+        <v>404.9306028098606</v>
       </c>
       <c r="C3">
-        <v>569.88305435352822</v>
+        <v>508.21454833938918</v>
       </c>
       <c r="D3">
-        <v>415.45243908670813</v>
+        <v>490.67665434144442</v>
       </c>
       <c r="E3">
-        <v>1141.2810798553596</v>
+        <v>405.41359672133422</v>
       </c>
       <c r="F3">
         <v>351.26462187205806</v>

--- a/data_output/prism_passive/all_passive_force at 67perc ROM.xlsx
+++ b/data_output/prism_passive/all_passive_force at 67perc ROM.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>664.4040783994509</v>
+        <v>590.31889494079167</v>
       </c>
       <c r="C2">
-        <v>531.50259167172783</v>
+        <v>401.8965782137555</v>
       </c>
       <c r="D2">
-        <v>771.25701545968775</v>
+        <v>755.62365799511065</v>
       </c>
       <c r="E2">
-        <v>788.77178351677196</v>
+        <v>383.60313119269222</v>
       </c>
       <c r="F2">
         <v>538.18447515159585</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>768.8220115826507</v>
+        <v>639.46245178292122</v>
       </c>
       <c r="C3">
-        <v>569.88305435352822</v>
+        <v>404.9306028098606</v>
       </c>
       <c r="D3">
-        <v>415.45243908670813</v>
+        <v>908.20732508596382</v>
       </c>
       <c r="E3">
-        <v>1141.2810798553596</v>
+        <v>490.67665434144442</v>
       </c>
       <c r="F3">
         <v>351.26462187205806</v>

--- a/data_output/prism_passive/all_passive_force at 67perc ROM.xlsx
+++ b/data_output/prism_passive/all_passive_force at 67perc ROM.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>664.40407147988253</v>
+      </c>
+      <c r="C2">
+        <v>531.5025879415125</v>
+      </c>
+      <c r="D2">
+        <v>771.25700831171434</v>
+      </c>
+      <c r="E2">
+        <v>788.77177742938795</v>
+      </c>
+      <c r="F2">
+        <v>538.18447164097529</v>
+      </c>
+      <c r="G2">
+        <v>638.095599864071</v>
+      </c>
+      <c r="H2">
+        <v>741.78086853070761</v>
+      </c>
+      <c r="I2">
+        <v>637.56263488377169</v>
+      </c>
+      <c r="J2">
+        <v>785.65830530725259</v>
+      </c>
+      <c r="K2">
+        <v>773.22296686657592</v>
+      </c>
+      <c r="L2">
+        <v>518.65625967817425</v>
+      </c>
+      <c r="M2">
+        <v>632.97730382556517</v>
+      </c>
+      <c r="N2">
         <v>590.31889494079167</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>401.8965782137555</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>663.22189082830312</v>
+      </c>
+      <c r="Q2">
+        <v>436.02477216889832</v>
+      </c>
+      <c r="R2">
+        <v>736.8907799324985</v>
+      </c>
+      <c r="S2">
+        <v>1066.2967346442995</v>
+      </c>
+      <c r="T2">
+        <v>674.08826708146523</v>
+      </c>
+      <c r="U2">
+        <v>422.26718301886052</v>
+      </c>
+      <c r="V2">
+        <v>891.38101777962481</v>
+      </c>
+      <c r="W2">
+        <v>679.770810030603</v>
+      </c>
+      <c r="X2">
+        <v>464.23362374431417</v>
+      </c>
+      <c r="Y2">
+        <v>591.64907205019256</v>
+      </c>
+      <c r="Z2">
+        <v>259.05603146828525</v>
+      </c>
+      <c r="AA2">
+        <v>1001.6565927352962</v>
+      </c>
+      <c r="AB2">
+        <v>461.48528489721775</v>
+      </c>
+      <c r="AC2">
+        <v>621.41792520368097</v>
+      </c>
+      <c r="AD2">
+        <v>461.87398746125263</v>
+      </c>
+      <c r="AE2">
+        <v>585.38322336838053</v>
+      </c>
+      <c r="AF2">
+        <v>645.77931736665244</v>
+      </c>
+      <c r="AG2">
+        <v>604.92200633921811</v>
+      </c>
+      <c r="AH2">
+        <v>527.2459164472084</v>
+      </c>
+      <c r="AI2">
+        <v>742.74361462512786</v>
+      </c>
+      <c r="AJ2">
+        <v>1144.7649551747174</v>
+      </c>
+      <c r="AK2">
+        <v>484.95728999380486</v>
+      </c>
+      <c r="AL2">
+        <v>741.07368219189664</v>
+      </c>
+      <c r="AM2">
         <v>755.62365799511065</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>383.60313119269222</v>
       </c>
-      <c r="F2">
-        <v>538.18447515159585</v>
-      </c>
-      <c r="G2">
-        <v>638.09560219980051</v>
-      </c>
-      <c r="H2">
-        <v>741.78087360653979</v>
-      </c>
-      <c r="I2">
-        <v>637.56263773813146</v>
-      </c>
-      <c r="J2">
-        <v>785.65831108612656</v>
-      </c>
-      <c r="K2">
-        <v>773.22297248194025</v>
-      </c>
-      <c r="L2">
-        <v>518.65626466427659</v>
-      </c>
-      <c r="M2">
-        <v>632.97730561691014</v>
-      </c>
-      <c r="N2">
-        <v>590.31889893653636</v>
-      </c>
-      <c r="O2">
-        <v>401.89657966571377</v>
-      </c>
-      <c r="P2">
-        <v>663.2218954642243</v>
-      </c>
-      <c r="Q2">
-        <v>436.02477349154839</v>
-      </c>
-      <c r="R2">
-        <v>736.89078145354415</v>
-      </c>
-      <c r="S2">
-        <v>1066.2967396004278</v>
-      </c>
-      <c r="T2">
-        <v>674.08826787276564</v>
-      </c>
-      <c r="U2">
-        <v>422.26718486075112</v>
-      </c>
-      <c r="V2">
-        <v>891.38102201050754</v>
-      </c>
-      <c r="W2">
-        <v>679.77081610655637</v>
-      </c>
-      <c r="X2">
-        <v>464.23362805376536</v>
-      </c>
-      <c r="Y2">
-        <v>591.64907362002862</v>
-      </c>
-      <c r="Z2">
-        <v>259.05603176344817</v>
-      </c>
-      <c r="AA2">
-        <v>1001.6566022805579</v>
-      </c>
-      <c r="AB2">
-        <v>461.48528998611664</v>
-      </c>
-      <c r="AC2">
-        <v>621.41793131478619</v>
-      </c>
-      <c r="AD2">
-        <v>461.87399222471612</v>
-      </c>
-      <c r="AE2">
-        <v>585.383229006894</v>
-      </c>
-      <c r="AF2">
-        <v>645.77932060882483</v>
-      </c>
-      <c r="AG2">
-        <v>604.92201419773198</v>
-      </c>
-      <c r="AH2">
-        <v>527.24591848303101</v>
-      </c>
-      <c r="AI2">
-        <v>742.74361972211898</v>
-      </c>
-      <c r="AJ2">
-        <v>1144.7649631492116</v>
-      </c>
-      <c r="AK2">
-        <v>484.95729468540435</v>
-      </c>
-      <c r="AL2">
-        <v>741.07368536702427</v>
-      </c>
-      <c r="AM2">
-        <v>755.62366177014076</v>
-      </c>
-      <c r="AN2">
-        <v>383.60313204402695</v>
-      </c>
       <c r="AO2">
-        <v>673.53122936368788</v>
+        <v>673.53122612534389</v>
       </c>
       <c r="AP2">
-        <v>402.6844486996892</v>
+        <v>402.68444763785925</v>
       </c>
       <c r="AQ2">
-        <v>639.96648689054007</v>
+        <v>639.9664850499895</v>
       </c>
       <c r="AR2">
-        <v>686.93718372883279</v>
+        <v>686.93717968263002</v>
       </c>
       <c r="AS2">
-        <v>939.71885359815769</v>
+        <v>939.71884652481788</v>
       </c>
       <c r="AT2">
-        <v>317.14280163734179</v>
+        <v>317.14280095182107</v>
       </c>
       <c r="AU2">
-        <v>864.80961235599625</v>
+        <v>864.8096081901939</v>
       </c>
       <c r="AV2">
-        <v>571.50097842708783</v>
+        <v>571.50097269163837</v>
       </c>
       <c r="AW2">
-        <v>328.80504692162776</v>
+        <v>328.80504512920442</v>
       </c>
       <c r="AX2">
-        <v>596.63538755225954</v>
+        <v>596.63538326108039</v>
       </c>
       <c r="AY2">
-        <v>352.46222630110725</v>
+        <v>352.46222461721305</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>768.82200340968029</v>
+      </c>
+      <c r="C3">
+        <v>569.88304913131958</v>
+      </c>
+      <c r="D3">
+        <v>415.45243711050904</v>
+      </c>
+      <c r="E3">
+        <v>1141.2810723687001</v>
+      </c>
+      <c r="F3">
+        <v>351.26462034656953</v>
+      </c>
+      <c r="G3">
+        <v>826.27823260038224</v>
+      </c>
+      <c r="H3">
+        <v>771.0489479953917</v>
+      </c>
+      <c r="I3">
+        <v>551.26986156080784</v>
+      </c>
+      <c r="J3">
+        <v>678.02620274760852</v>
+      </c>
+      <c r="K3">
+        <v>705.91531359157489</v>
+      </c>
+      <c r="L3">
+        <v>596.50661916442277</v>
+      </c>
+      <c r="M3">
+        <v>815.79965599244952</v>
+      </c>
+      <c r="N3">
         <v>639.46245178292122</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>404.9306028098606</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>885.97526588557196</v>
+      </c>
+      <c r="Q3">
+        <v>496.16746804505073</v>
+      </c>
+      <c r="R3">
+        <v>508.21454833938918</v>
+      </c>
+      <c r="S3">
+        <v>674.91329897767696</v>
+      </c>
+      <c r="T3">
+        <v>672.99587540341861</v>
+      </c>
+      <c r="U3">
+        <v>484.42499511541291</v>
+      </c>
+      <c r="V3">
+        <v>649.60063210915212</v>
+      </c>
+      <c r="W3">
+        <v>422.10991117805406</v>
+      </c>
+      <c r="X3">
+        <v>413.20641979803491</v>
+      </c>
+      <c r="Y3">
+        <v>517.33430303369414</v>
+      </c>
+      <c r="Z3">
+        <v>326.20853941765398</v>
+      </c>
+      <c r="AA3">
+        <v>772.30076226405617</v>
+      </c>
+      <c r="AB3">
+        <v>588.82551790618447</v>
+      </c>
+      <c r="AC3">
+        <v>592.24614546105943</v>
+      </c>
+      <c r="AD3">
+        <v>819.30778678654951</v>
+      </c>
+      <c r="AE3">
+        <v>496.71936926303675</v>
+      </c>
+      <c r="AF3">
+        <v>722.39516356863942</v>
+      </c>
+      <c r="AG3">
+        <v>763.95426073695853</v>
+      </c>
+      <c r="AH3">
+        <v>619.51634713386659</v>
+      </c>
+      <c r="AI3">
+        <v>722.32281071763191</v>
+      </c>
+      <c r="AJ3">
+        <v>1268.0077104447917</v>
+      </c>
+      <c r="AK3">
+        <v>687.07386679274316</v>
+      </c>
+      <c r="AL3">
+        <v>685.08169686560939</v>
+      </c>
+      <c r="AM3">
         <v>908.20732508596382</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>490.67665434144442</v>
       </c>
-      <c r="F3">
-        <v>351.26462187205806</v>
-      </c>
-      <c r="G3">
-        <v>826.27823658292493</v>
-      </c>
-      <c r="H3">
-        <v>771.04895300414739</v>
-      </c>
-      <c r="I3">
-        <v>551.26986244920488</v>
-      </c>
-      <c r="J3">
-        <v>678.02620862881292</v>
-      </c>
-      <c r="K3">
-        <v>705.91531596988386</v>
-      </c>
-      <c r="L3">
-        <v>596.50662203023978</v>
-      </c>
-      <c r="M3">
-        <v>815.75700379774571</v>
-      </c>
-      <c r="N3">
-        <v>639.46245407163985</v>
-      </c>
-      <c r="O3">
-        <v>404.93060369385194</v>
-      </c>
-      <c r="P3">
-        <v>885.97527242703291</v>
-      </c>
-      <c r="Q3">
-        <v>496.16746981116688</v>
-      </c>
-      <c r="R3">
-        <v>508.21455107830815</v>
-      </c>
-      <c r="S3">
-        <v>674.91330131785787</v>
-      </c>
-      <c r="T3">
-        <v>672.99587688237341</v>
-      </c>
-      <c r="U3">
-        <v>484.42499638176452</v>
-      </c>
-      <c r="V3">
-        <v>649.60063420939707</v>
-      </c>
-      <c r="W3">
-        <v>422.10991338660841</v>
-      </c>
-      <c r="X3">
-        <v>413.20642156449776</v>
-      </c>
-      <c r="Y3">
-        <v>517.33430436375045</v>
-      </c>
-      <c r="Z3">
-        <v>326.20853984200886</v>
-      </c>
-      <c r="AA3">
-        <v>772.30077175891074</v>
-      </c>
-      <c r="AB3">
-        <v>588.82552526388315</v>
-      </c>
-      <c r="AC3">
-        <v>592.24615065222599</v>
-      </c>
-      <c r="AD3">
-        <v>819.30779422028581</v>
-      </c>
-      <c r="AE3">
-        <v>496.71937477725277</v>
-      </c>
-      <c r="AF3">
-        <v>722.39517019821187</v>
-      </c>
-      <c r="AG3">
-        <v>763.95426959292843</v>
-      </c>
-      <c r="AH3">
-        <v>619.51635125115263</v>
-      </c>
-      <c r="AI3">
-        <v>722.32281750598588</v>
-      </c>
-      <c r="AJ3">
-        <v>1268.0077190989252</v>
-      </c>
-      <c r="AK3">
-        <v>687.07387454675961</v>
-      </c>
-      <c r="AL3">
-        <v>685.0817016963598</v>
-      </c>
-      <c r="AM3">
-        <v>908.20733160185353</v>
-      </c>
-      <c r="AN3">
-        <v>490.67665737946527</v>
-      </c>
       <c r="AO3">
-        <v>1014.6316199756193</v>
+        <v>1014.6316102979146</v>
       </c>
       <c r="AP3">
-        <v>455.94870343475833</v>
+        <v>455.9487020872275</v>
       </c>
       <c r="AQ3">
-        <v>405.41359814435253</v>
+        <v>405.41359672133422</v>
       </c>
       <c r="AR3">
-        <v>608.36962346706161</v>
+        <v>608.36962179582531</v>
       </c>
       <c r="AS3">
-        <v>768.70649085349544</v>
+        <v>768.70648475132145</v>
       </c>
       <c r="AT3">
-        <v>343.11616526351418</v>
+        <v>343.11616407393439</v>
       </c>
       <c r="AU3">
-        <v>1065.8360279041415</v>
+        <v>1065.8360204875746</v>
       </c>
       <c r="AV3">
-        <v>510.41733776566321</v>
+        <v>510.41733200485663</v>
       </c>
       <c r="AW3">
-        <v>543.56649653487955</v>
+        <v>543.56649122378474</v>
       </c>
       <c r="AX3">
-        <v>731.65428824274579</v>
+        <v>731.65428464089234</v>
       </c>
       <c r="AY3">
-        <v>489.27155382553633</v>
+        <v>489.27155102054803</v>
       </c>
     </row>
   </sheetData>
